--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>tag</t>
   </si>
@@ -161,16 +161,31 @@
     <t>student_orgs</t>
   </si>
   <si>
-    <t>what are the student organizations in plm?</t>
-  </si>
-  <si>
-    <t>Basta alam mo na yon</t>
-  </si>
-  <si>
-    <t>what student organizations can i join in plm?</t>
-  </si>
-  <si>
-    <t>list all student organizations in plm</t>
+    <t>Can you list the student organizations that are available in PLM?</t>
+  </si>
+  <si>
+    <t>Basta alam mo na yon part 2</t>
+  </si>
+  <si>
+    <t>What kinds of student organizations can students join in PLM?</t>
+  </si>
+  <si>
+    <t>Are there any specific student organizations that are popular among PLM students?</t>
+  </si>
+  <si>
+    <t>Could you provide some information on the different student organizations that exist in PLM?</t>
+  </si>
+  <si>
+    <t>What are the student-led groups or clubs in PLM?</t>
+  </si>
+  <si>
+    <t>Can you tell me about the various student organizations that operate in PLM?</t>
+  </si>
+  <si>
+    <t>Which student organizations are currently active in PLM?</t>
+  </si>
+  <si>
+    <t>How many student organizations are there in PLM, and what are they?</t>
   </si>
   <si>
     <t>what_icto</t>
@@ -450,7 +465,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="49.5"/>
+    <col customWidth="1" min="2" max="2" width="71.75"/>
     <col customWidth="1" min="3" max="3" width="138.0"/>
   </cols>
   <sheetData>
@@ -685,6 +700,31 @@
     <row r="37">
       <c r="B37" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -720,13 +760,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -161,31 +161,31 @@
     <t>student_orgs</t>
   </si>
   <si>
-    <t>Can you list the student organizations that are available in PLM?</t>
+    <t>Can you list the organizations that are available in PLM?</t>
   </si>
   <si>
     <t>Basta alam mo na yon part 2</t>
   </si>
   <si>
-    <t>What kinds of student organizations can students join in PLM?</t>
-  </si>
-  <si>
-    <t>Are there any specific student organizations that are popular among PLM students?</t>
-  </si>
-  <si>
-    <t>Could you provide some information on the different student organizations that exist in PLM?</t>
+    <t>What kinds of organizations can students join in PLM?</t>
+  </si>
+  <si>
+    <t>Are there any specific organizations that are popular among PLM students?</t>
+  </si>
+  <si>
+    <t>Could you provide some information on the different organizations that exist in PLM?</t>
   </si>
   <si>
     <t>What are the student-led groups or clubs in PLM?</t>
   </si>
   <si>
-    <t>Can you tell me about the various student organizations that operate in PLM?</t>
-  </si>
-  <si>
-    <t>Which student organizations are currently active in PLM?</t>
-  </si>
-  <si>
-    <t>How many student organizations are there in PLM, and what are they?</t>
+    <t>Can you tell me about the various organizations that operate in PLM?</t>
+  </si>
+  <si>
+    <t>Which organizations are currently active in PLM?</t>
+  </si>
+  <si>
+    <t>How many organizations are there in PLM, and what are they?</t>
   </si>
   <si>
     <t>what_icto</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -164,7 +164,7 @@
     <t>Can you list the organizations that are available in PLM?</t>
   </si>
   <si>
-    <t>Basta alam mo na yon part 2</t>
+    <t>Here are the list of active student organizations in PLM as of 2023...</t>
   </si>
   <si>
     <t>What kinds of organizations can students join in PLM?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>tag</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>How many organizations are there in PLM, and what are they?</t>
+  </si>
+  <si>
+    <t>what organizations can i join in plm?</t>
   </si>
   <si>
     <t>what_icto</t>
@@ -727,6 +730,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="43">
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -760,13 +768,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>tag</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>what organizations can i join in plm?</t>
+  </si>
+  <si>
+    <t>list all organizations in plm</t>
+  </si>
+  <si>
+    <t>what various organizations can i join in plm?</t>
   </si>
   <si>
     <t>what_icto</t>
@@ -735,6 +741,16 @@
         <v>58</v>
       </c>
     </row>
+    <row r="44">
+      <c r="B44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -768,13 +784,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>tag</t>
   </si>
@@ -47,6 +47,9 @@
     <t>what courses do they offer?</t>
   </si>
   <si>
+    <t>list all the courses available in plm</t>
+  </si>
+  <si>
     <t>public_or_private</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>what various organizations can i join in plm?</t>
+  </si>
+  <si>
+    <t>list all orgs in plm</t>
   </si>
   <si>
     <t>what_icto</t>
@@ -526,18 +532,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -557,18 +563,18 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -588,18 +594,18 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -624,18 +630,18 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -655,18 +661,18 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -691,18 +697,18 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -749,6 +755,16 @@
     <row r="45">
       <c r="B45" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -784,13 +800,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>tag</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>ICTO is the office of ICTO</t>
+  </si>
+  <si>
+    <t>Do you know ICTO?</t>
   </si>
 </sst>
 </file>
@@ -809,6 +812,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>tag</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Do you know ICTO?</t>
+  </si>
+  <si>
+    <t>Define ICTO</t>
   </si>
 </sst>
 </file>
@@ -817,6 +820,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the office of ICTO</t>
+    <t>Information and Communications Technology Office (ICTO)</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>Information and Communications Technology Office (ICTO)</t>
+    <t>ICTO means Information and Communications Technology Office (ICTO)</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO means Information and Communications Technology Office (ICTO)</t>
+    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM.</t>
+    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM located on the ground floor of GV.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM located on the ground floor of GV.</t>
+    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM.</t>
+    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM located in GV.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM located in GV.</t>
+    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office (ICTO) of PLM located in GV.</t>
+    <t>ICTO is the Information and Communications Technology Office of PLM.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office of PLM.</t>
+    <t>ICTO is the Information and Communications Technology Office of PLM located at GV.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office of PLM located at GV.</t>
+    <t>ICTO is the Information and Communications Technology Office of PLM located at GV ground floor.</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -209,7 +209,7 @@
     <t>What is ICTO?</t>
   </si>
   <si>
-    <t>ICTO is the Information and Communications Technology Office of PLM located at GV ground floor.</t>
+    <t>ICTO is the Information and Communications Technology Office of PLM located at Gusaling Villegas (GV).</t>
   </si>
   <si>
     <t>Do you know ICTO?</t>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>tag</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>list all orgs in plm</t>
+  </si>
+  <si>
+    <t>i want to join an organization</t>
   </si>
   <si>
     <t>what_icto</t>
@@ -773,6 +776,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="48">
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -806,23 +814,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="general" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="dep_icto" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="cet" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>tag</t>
   </si>
@@ -219,6 +220,30 @@
   </si>
   <si>
     <t>Define ICTO</t>
+  </si>
+  <si>
+    <t>cet_courses</t>
+  </si>
+  <si>
+    <t>what are the available courses in CET?</t>
+  </si>
+  <si>
+    <t>Computer engineering, Computer science, etc.</t>
+  </si>
+  <si>
+    <t>what programs are under CET?</t>
+  </si>
+  <si>
+    <t>what_cet</t>
+  </si>
+  <si>
+    <t>what is CET?</t>
+  </si>
+  <si>
+    <t>CET means College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>define CET?</t>
   </si>
 </sst>
 </file>
@@ -281,6 +306,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -836,4 +865,67 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.88"/>
+    <col customWidth="1" min="2" max="2" width="49.38"/>
+    <col customWidth="1" min="3" max="3" width="138.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -4,8 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="general" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="dep_icto" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="cet" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>tag</t>
   </si>
@@ -168,7 +166,7 @@
     <t>Can you list the organizations that are available in PLM?</t>
   </si>
   <si>
-    <t>Here are the list of active student organizations in PLM as of 2023...</t>
+    <t>I currently don't have a list of all student organizations in PLM as I still have no data about it. Kindly give a feedback to improve my knowledge base!</t>
   </si>
   <si>
     <t>What kinds of organizations can students join in PLM?</t>
@@ -205,45 +203,6 @@
   </si>
   <si>
     <t>i want to join an organization</t>
-  </si>
-  <si>
-    <t>what_icto</t>
-  </si>
-  <si>
-    <t>What is ICTO?</t>
-  </si>
-  <si>
-    <t>ICTO is the Information and Communications Technology Office of PLM located at Gusaling Villegas (GV).</t>
-  </si>
-  <si>
-    <t>Do you know ICTO?</t>
-  </si>
-  <si>
-    <t>Define ICTO</t>
-  </si>
-  <si>
-    <t>cet_courses</t>
-  </si>
-  <si>
-    <t>what are the available courses in CET?</t>
-  </si>
-  <si>
-    <t>Computer engineering, Computer science, etc.</t>
-  </si>
-  <si>
-    <t>what programs are under CET?</t>
-  </si>
-  <si>
-    <t>what_cet</t>
-  </si>
-  <si>
-    <t>what is CET?</t>
-  </si>
-  <si>
-    <t>CET means College of Engineering and Technology</t>
-  </si>
-  <si>
-    <t>define CET?</t>
   </si>
 </sst>
 </file>
@@ -302,14 +261,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -813,119 +764,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="12.88"/>
-    <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="3" width="138.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="12.88"/>
-    <col customWidth="1" min="2" max="2" width="49.38"/>
-    <col customWidth="1" min="3" max="3" width="138.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="general" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="about_chatplm" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="general" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>tag</t>
   </si>
@@ -22,6 +23,51 @@
     <t>response</t>
   </si>
   <si>
+    <t>who_are_you</t>
+  </si>
+  <si>
+    <t>who are you?</t>
+  </si>
+  <si>
+    <t>Hi, haribon! I am ChatPLM, a simple AI trained to answer your PLM-related questions. Ask me anything about PLM and I'll try my best to answer it.</t>
+  </si>
+  <si>
+    <t>what is your name?</t>
+  </si>
+  <si>
+    <t>introduce yourself</t>
+  </si>
+  <si>
+    <t>tell me about yourself</t>
+  </si>
+  <si>
+    <t>tell me about you</t>
+  </si>
+  <si>
+    <t>who_created</t>
+  </si>
+  <si>
+    <t>who created you?</t>
+  </si>
+  <si>
+    <t>I am developed by a group of passionate Computer Science students from PLM and maintained by a lot of student volunteers!</t>
+  </si>
+  <si>
+    <t>who developed you?</t>
+  </si>
+  <si>
+    <t>who made you?</t>
+  </si>
+  <si>
+    <t>who are the people behind your development?</t>
+  </si>
+  <si>
+    <t>who are the people that created you?</t>
+  </si>
+  <si>
+    <t>who are the people that made you?</t>
+  </si>
+  <si>
     <t>courses_offered</t>
   </si>
   <si>
@@ -37,9 +83,6 @@
     <t>Can you tell me about PLM's academic programs?</t>
   </si>
   <si>
-    <t>What undergraduate and graduate courses are available at PLM?</t>
-  </si>
-  <si>
     <t>what are the courses in plm?</t>
   </si>
   <si>
@@ -70,6 +113,12 @@
     <t>Is PLM a public school?</t>
   </si>
   <si>
+    <t>is plm public?</t>
+  </si>
+  <si>
+    <t>is plm private?</t>
+  </si>
+  <si>
     <t>admission_process</t>
   </si>
   <si>
@@ -91,6 +140,9 @@
     <t>how to apply?</t>
   </si>
   <si>
+    <t>tell me about the admission process</t>
+  </si>
+  <si>
     <t>tuition_fee</t>
   </si>
   <si>
@@ -115,6 +167,9 @@
     <t>does plm have a tuition fee?</t>
   </si>
   <si>
+    <t>tell me about the tuition fee</t>
+  </si>
+  <si>
     <t>history</t>
   </si>
   <si>
@@ -136,28 +191,28 @@
     <t>tell me about plm's history</t>
   </si>
   <si>
-    <t>campus</t>
-  </si>
-  <si>
-    <t>What is the campus like at PLM?</t>
-  </si>
-  <si>
-    <t>PLM's main campus is located in the heart of Manila, near several major landmarks and attractions. The campus is well-maintained and features modern facilities, including lecture halls, laboratories, libraries, and sports facilities.</t>
+    <t>location</t>
   </si>
   <si>
     <t>Where is PLM located?</t>
   </si>
   <si>
-    <t>Can you describe the campus of PLM?</t>
-  </si>
-  <si>
-    <t>What facilities does PLM's campus have?</t>
+    <t>PLM's main campus is located in General Luna, corner Muralla St, Intramuros, Manila, 1002 Metro Manila.</t>
   </si>
   <si>
     <t>where can i find plm?</t>
   </si>
   <si>
     <t>i want to find where is plm. can you tell me?</t>
+  </si>
+  <si>
+    <t>tell me plm's location</t>
+  </si>
+  <si>
+    <t>give me plm's location</t>
+  </si>
+  <si>
+    <t>where is plm?</t>
   </si>
   <si>
     <t>student_orgs</t>
@@ -242,9 +297,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -261,6 +325,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -468,297 +536,432 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="3" max="3" width="48.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="18.88"/>
     <col customWidth="1" min="2" max="2" width="71.75"/>
     <col customWidth="1" min="3" max="3" width="138.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>23</v>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>24</v>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="2" t="s">
-        <v>25</v>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>29</v>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>30</v>
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="s">
-        <v>31</v>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="2" t="s">
-        <v>32</v>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="s">
-        <v>33</v>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
+      <c r="B25" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="s">
-        <v>37</v>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>38</v>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="2" t="s">
-        <v>39</v>
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
-        <v>40</v>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>43</v>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="2" t="s">
-        <v>44</v>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="2" t="s">
-        <v>45</v>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="2" t="s">
-        <v>46</v>
+      <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="s">
-        <v>47</v>
+      <c r="B34" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="s">
-        <v>48</v>
+      <c r="B35" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>51</v>
+      <c r="B36" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="2" t="s">
-        <v>52</v>
+      <c r="B37" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="2" t="s">
-        <v>53</v>
+      <c r="B38" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="2" t="s">
-        <v>54</v>
+      <c r="A39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="2" t="s">
-        <v>55</v>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="2" t="s">
-        <v>56</v>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="2" t="s">
-        <v>57</v>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="2" t="s">
-        <v>58</v>
+      <c r="B43" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="2" t="s">
-        <v>59</v>
+      <c r="B44" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="2" t="s">
-        <v>60</v>
+      <c r="B45" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="2" t="s">
-        <v>61</v>
+      <c r="B46" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="2" t="s">
-        <v>62</v>
+      <c r="B47" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="2" t="s">
-        <v>63</v>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>tag</t>
   </si>
@@ -29,7 +29,9 @@
     <t>who are you?</t>
   </si>
   <si>
-    <t>Hi, haribon! I am ChatPLM, a simple AI trained to answer your PLM-related questions. Ask me anything about PLM and I'll try my best to answer it.</t>
+    <t>Hi, haribon! I am ChatPLM, a simple AI trained to answer your PLM-related questions. 
+I am developed by a group of passionate Computer Science students from PLM and maintained by a lot of student volunteers.
+Ask me anything about PLM and I'll try my best to answer it!</t>
   </si>
   <si>
     <t>what is your name?</t>
@@ -44,15 +46,9 @@
     <t>tell me about you</t>
   </si>
   <si>
-    <t>who_created</t>
-  </si>
-  <si>
     <t>who created you?</t>
   </si>
   <si>
-    <t>I am developed by a group of passionate Computer Science students from PLM and maintained by a lot of student volunteers!</t>
-  </si>
-  <si>
     <t>who developed you?</t>
   </si>
   <si>
@@ -68,6 +64,63 @@
     <t>who are the people that made you?</t>
   </si>
   <si>
+    <t>May I know who I'm speaking with?</t>
+  </si>
+  <si>
+    <t>What is your identity?</t>
+  </si>
+  <si>
+    <t>Can you introduce yourself?</t>
+  </si>
+  <si>
+    <t>Who am I chatting with right now?</t>
+  </si>
+  <si>
+    <t>Tell me more about who you are.</t>
+  </si>
+  <si>
+    <t>What do you go by?</t>
+  </si>
+  <si>
+    <t>What should I call you?</t>
+  </si>
+  <si>
+    <t>Who created you?</t>
+  </si>
+  <si>
+    <t>What is the name of this chatbot?</t>
+  </si>
+  <si>
+    <t>I'm curious about your identity. Can you share more about it?</t>
+  </si>
+  <si>
+    <t>Could you tell me a little bit about yourself?</t>
+  </si>
+  <si>
+    <t>What is your purpose?</t>
+  </si>
+  <si>
+    <t>Who designed you?</t>
+  </si>
+  <si>
+    <t>What is the story behind your creation?</t>
+  </si>
+  <si>
+    <t>Can you give me some background information on yourself?</t>
+  </si>
+  <si>
+    <t>Who programmed you?</t>
+  </si>
+  <si>
+    <t>What is your function?</t>
+  </si>
+  <si>
+    <t>What is your role in this conversation?</t>
+  </si>
+  <si>
+    <t>Can you describe yourself?</t>
+  </si>
+  <si>
     <t>courses_offered</t>
   </si>
   <si>
@@ -179,16 +232,52 @@
     <t>PLM was established in 1965 as a college under the administration of the City of Manila. It became a university in 2001 and is now considered one of the leading universities in the Philippines.</t>
   </si>
   <si>
+    <t>What is the background of PLM?</t>
+  </si>
+  <si>
+    <t>Can you give me some information about PLM's history?</t>
+  </si>
+  <si>
+    <t>tell me about plm's history</t>
+  </si>
+  <si>
     <t>When was PLM established?</t>
   </si>
   <si>
-    <t>What is the background of PLM?</t>
-  </si>
-  <si>
-    <t>Can you give me some information about PLM's history?</t>
-  </si>
-  <si>
-    <t>tell me about plm's history</t>
+    <t>Can you provide a brief history of PLM?</t>
+  </si>
+  <si>
+    <t>What are the significant events in PLM's history?</t>
+  </si>
+  <si>
+    <t>How did PLM start?</t>
+  </si>
+  <si>
+    <t>What is the origin of PLM?</t>
+  </si>
+  <si>
+    <t>What historical milestones has PLM achieved?</t>
+  </si>
+  <si>
+    <t>What is the story behind PLM's establishment?</t>
+  </si>
+  <si>
+    <t>Can you tell me about PLM's past?</t>
+  </si>
+  <si>
+    <t>What are some key moments in PLM's history?</t>
+  </si>
+  <si>
+    <t>When did PLM become a university?</t>
+  </si>
+  <si>
+    <t>What was the motivation behind the establishment of PLM?</t>
+  </si>
+  <si>
+    <t>Can you describe the early years of PLM?</t>
+  </si>
+  <si>
+    <t>Can you give me an overview of PLM's historical significance?</t>
   </si>
   <si>
     <t>location</t>
@@ -310,10 +399,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -536,7 +625,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="2" max="2" width="48.75"/>
     <col customWidth="1" min="3" max="3" width="48.38"/>
   </cols>
   <sheetData>
@@ -591,55 +680,143 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -662,306 +839,366 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>21</v>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>22</v>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>23</v>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>24</v>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
-        <v>25</v>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>29</v>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>30</v>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="5" t="s">
-        <v>31</v>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>32</v>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="s">
-        <v>33</v>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="s">
-        <v>34</v>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>38</v>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>39</v>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>40</v>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>41</v>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>42</v>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="s">
-        <v>46</v>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
-        <v>47</v>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>48</v>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
-        <v>49</v>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="5" t="s">
-        <v>50</v>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="5" t="s">
-        <v>51</v>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>54</v>
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5" t="s">
-        <v>55</v>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
-        <v>56</v>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="5" t="s">
-        <v>57</v>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="5" t="s">
-        <v>58</v>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="5" t="s">
-        <v>62</v>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="5" t="s">
-        <v>63</v>
+      <c r="B35" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="5" t="s">
-        <v>64</v>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="5" t="s">
-        <v>65</v>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="5" t="s">
-        <v>66</v>
+      <c r="B38" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>69</v>
+      <c r="B39" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="5" t="s">
-        <v>70</v>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="5" t="s">
-        <v>71</v>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="5" t="s">
-        <v>72</v>
+      <c r="B42" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="5" t="s">
-        <v>73</v>
+      <c r="B43" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="5" t="s">
-        <v>74</v>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="5" t="s">
-        <v>75</v>
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="5" t="s">
-        <v>76</v>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="5" t="s">
-        <v>77</v>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="5" t="s">
-        <v>78</v>
+      <c r="B48" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="5" t="s">
-        <v>79</v>
+      <c r="B49" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="5" t="s">
-        <v>80</v>
+      <c r="B50" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="5" t="s">
-        <v>81</v>
+      <c r="A51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t>tag</t>
   </si>
@@ -64,24 +64,12 @@
     <t>who are the people that made you?</t>
   </si>
   <si>
-    <t>May I know who I'm speaking with?</t>
-  </si>
-  <si>
-    <t>What is your identity?</t>
-  </si>
-  <si>
     <t>Can you introduce yourself?</t>
   </si>
   <si>
-    <t>Who am I chatting with right now?</t>
-  </si>
-  <si>
     <t>Tell me more about who you are.</t>
   </si>
   <si>
-    <t>What do you go by?</t>
-  </si>
-  <si>
     <t>What should I call you?</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>What is the name of this chatbot?</t>
   </si>
   <si>
-    <t>I'm curious about your identity. Can you share more about it?</t>
-  </si>
-  <si>
     <t>Could you tell me a little bit about yourself?</t>
   </si>
   <si>
@@ -103,24 +88,21 @@
     <t>Who designed you?</t>
   </si>
   <si>
-    <t>What is the story behind your creation?</t>
-  </si>
-  <si>
     <t>Can you give me some background information on yourself?</t>
   </si>
   <si>
     <t>Who programmed you?</t>
   </si>
   <si>
-    <t>What is your function?</t>
-  </si>
-  <si>
-    <t>What is your role in this conversation?</t>
-  </si>
-  <si>
     <t>Can you describe yourself?</t>
   </si>
   <si>
+    <t>what is chatplm?</t>
+  </si>
+  <si>
+    <t>who is chatplm?</t>
+  </si>
+  <si>
     <t>courses_offered</t>
   </si>
   <si>
@@ -145,6 +127,63 @@
     <t>list all the courses available in plm</t>
   </si>
   <si>
+    <t>Please provide me with information about the academic programs and courses available at PLM.</t>
+  </si>
+  <si>
+    <t>I'm interested in knowing the range of educational programs and courses provided by PLM.</t>
+  </si>
+  <si>
+    <t>Could you give me a rundown of the courses that are offered at PLM?</t>
+  </si>
+  <si>
+    <t>I'm curious about the academic programs available at PLM. Can you tell me more about them?</t>
+  </si>
+  <si>
+    <t>What kind of educational programs and courses does PLM offer?</t>
+  </si>
+  <si>
+    <t>What are the different types of courses that I can take at PLM?</t>
+  </si>
+  <si>
+    <t>Can you provide me with a comprehensive list of the academic programs offered by PLM?</t>
+  </si>
+  <si>
+    <t>I'm considering applying to PLM. Can you tell me more about the courses I could take there?</t>
+  </si>
+  <si>
+    <t>How many courses are available at PLM?</t>
+  </si>
+  <si>
+    <t>I'm looking for a specific type of course. Can you help me find it?</t>
+  </si>
+  <si>
+    <t>Are there any unique courses or programs offered at PLM?</t>
+  </si>
+  <si>
+    <t>I'm interested in a career in a specific field. Does PLM offer courses in that area?</t>
+  </si>
+  <si>
+    <t>What are the requirements for enrolling in a specific academic program at PLM?</t>
+  </si>
+  <si>
+    <t>How can I find out more about PLM's course offerings?</t>
+  </si>
+  <si>
+    <t>Are there any online courses available at PLM?</t>
+  </si>
+  <si>
+    <t>What is the course load like for PLM students?</t>
+  </si>
+  <si>
+    <t>Are there any special programs or opportunities available to PLM students?</t>
+  </si>
+  <si>
+    <t>What kind of academic support and resources are available to PLM students?</t>
+  </si>
+  <si>
+    <t>How does PLM compare to other universities in terms of academic programs?</t>
+  </si>
+  <si>
     <t>public_or_private</t>
   </si>
   <si>
@@ -172,6 +211,33 @@
     <t>is plm private?</t>
   </si>
   <si>
+    <t>Is PLM a publicly-funded institution?</t>
+  </si>
+  <si>
+    <t>Who is responsible for funding PLM?</t>
+  </si>
+  <si>
+    <t>Is PLM a privately-funded university?</t>
+  </si>
+  <si>
+    <t>Is PLM a state-owned university?</t>
+  </si>
+  <si>
+    <t>Is PLM a privately-owned institution?</t>
+  </si>
+  <si>
+    <t>What is the ownership structure of PLM?</t>
+  </si>
+  <si>
+    <t>Is PLM considered a public school?</t>
+  </si>
+  <si>
+    <t>Is PLM considered a private school?</t>
+  </si>
+  <si>
+    <t>Is PLM a government-run university?</t>
+  </si>
+  <si>
     <t>admission_process</t>
   </si>
   <si>
@@ -196,6 +262,33 @@
     <t>tell me about the admission process</t>
   </si>
   <si>
+    <t>Can you walk me through the admission process for PLM?</t>
+  </si>
+  <si>
+    <t>What are the steps I need to follow to apply for admission to PLM?</t>
+  </si>
+  <si>
+    <t>How do I submit my application to PLM?</t>
+  </si>
+  <si>
+    <t>Can you provide me with information about the documents required for PLM's admission process?</t>
+  </si>
+  <si>
+    <t>What are the eligibility criteria for admission to PLM?</t>
+  </si>
+  <si>
+    <t>Is there an interview or entrance exam as part of the admission process at PLM?</t>
+  </si>
+  <si>
+    <t>What kind of grades and academic records are required for admission to PLM?</t>
+  </si>
+  <si>
+    <t>Can you provide me with information about the admission process for PLM?</t>
+  </si>
+  <si>
+    <t>i want to apply to plm, can you tell me how?</t>
+  </si>
+  <si>
     <t>tuition_fee</t>
   </si>
   <si>
@@ -223,6 +316,24 @@
     <t>tell me about the tuition fee</t>
   </si>
   <si>
+    <t>Can you provide me with information about the tuition fees at PLM?</t>
+  </si>
+  <si>
+    <t>What is the cost of tuition per semester or academic year at PLM?</t>
+  </si>
+  <si>
+    <t>Are there any additional fees, such as laboratory or miscellaneous fees, that I should be aware of when attending PLM?</t>
+  </si>
+  <si>
+    <t>How does the cost of tuition at PLM compare to other universities in the region or country?</t>
+  </si>
+  <si>
+    <t>How do I pay for tuition at PLM?</t>
+  </si>
+  <si>
+    <t>Can I pay tuition in installments at PLM?</t>
+  </si>
+  <si>
     <t>history</t>
   </si>
   <si>
@@ -292,9 +403,6 @@
     <t>where can i find plm?</t>
   </si>
   <si>
-    <t>i want to find where is plm. can you tell me?</t>
-  </si>
-  <si>
     <t>tell me plm's location</t>
   </si>
   <si>
@@ -302,6 +410,24 @@
   </si>
   <si>
     <t>where is plm?</t>
+  </si>
+  <si>
+    <t>Can you provide me with the physical address of PLM?</t>
+  </si>
+  <si>
+    <t>Where exactly is PLM located?</t>
+  </si>
+  <si>
+    <t>What is the location of PLM, and in what city or region is it situated?</t>
+  </si>
+  <si>
+    <t>Can you give me directions to PLM?</t>
+  </si>
+  <si>
+    <t>Is PLM easily accessible via public transportation?</t>
+  </si>
+  <si>
+    <t>How can I find PLM on a map?</t>
   </si>
   <si>
     <t>student_orgs</t>
@@ -722,11 +848,9 @@
       <c r="C12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
@@ -786,36 +910,6 @@
     <row r="25">
       <c r="B25" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -851,354 +945,594 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="B43" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="4" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>tag</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Could you tell me a little bit about yourself?</t>
-  </si>
-  <si>
-    <t>What is your purpose?</t>
   </si>
   <si>
     <t>Who designed you?</t>
@@ -907,11 +904,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -945,594 +937,594 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
